--- a/content/Supervision/students.xlsx
+++ b/content/Supervision/students.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640DB807-C599-4029-98BC-CAC659DF50C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phd" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -147,9 +148,6 @@
     <t>[Md. Belal Hossain](https://www.linkedin.com/in/md-belal-hossain-3906b36a/) ([SPPH](http://www.spph.ubc.ca/), transferred from MSc)</t>
   </si>
   <si>
-    <t>[Zishan (Michelle) Cui](http://linkedin.com/in/zishan-michelle-cui-97a3882b) ([SPPH](http://www.spph.ubc.ca/))</t>
-  </si>
-  <si>
     <t>[Lucy Mosquera](https://www.linkedin.com/in/lucy-k-mosquera/) ([Statistics](http://www.stat.ubc.ca/), Graduated 2020)</t>
   </si>
   <si>
@@ -177,15 +175,9 @@
     <t xml:space="preserve">Belal Hossain is a Ph.D. student at the School of Population and Public Health, University British Columbia. He is also working with Dr. Ehsan Karim as a Graduate Research Assistant at the School. Belal did his Bachelor's and MSc degrees in Applied Statistics from the University of Dhaka. A recurring theme in his research is analyzing complex survey data collected through stratification and cluster sampling. He is motivated to develop and apply his skills within the public health realm through working experiences with various healthcare institutes in Bangladesh. Under Dr. Karim’s guidance, Belal has been working with causal inference methods to estimate treatment effects in trials with incomplete medication adherence, integrating machine learning approaches within the framework of causal inference, and applying/adapting these innovative and emerging techniques in real-life epidemiological data analysis. His current research interests include biostatistics and epidemiology, focusing on causal inference from observational studies and clinical trials with medication nonadherence, and machine learning and deep learning approaches in risk score prediction from a large healthcare database. </t>
   </si>
   <si>
-    <t>Zishan (Michelle) Cui has a background in Statistics. Zishan completed her MSc in statistics at the University of British Columbia. Zishan has been working as a biostatistician in Providence Health Care, and has engaged in marginalized population research. Particularly, Zishan is interested in using machine learning methods to tackle substance use problems in British Columbia. Under the supervision of Dr. Ehsan Karim and Dr. Thomas Kerr, Zishan is working on her Ph.D. in the School of Population and Public Health in machine learning methods and poly-substance use research. Currently, Zishan is working at BC Centre on Substance Use and working collaboratively with BCCDC regarding BC Provincial Overdose Cohort. She is also involved in causal inference research using marginal structural modeling and mediation analysis.</t>
-  </si>
-  <si>
     <t>Lucy Mosquera has a background in biology and mathematics, having completed her BSc at Queen's University in Kingston and her MSc in statistics at the University of British Columbia. She is motivated by problems at the intersection of healthcare and data science, specifically ways to make health research more efficient. Under the supervision of Dr. Ehsan Karim, Lucy's MSc. thesis compared causal inference methods to recover the true effect of receiving a new treatment when trial participants do not adhere to the treatment protocol. She has provided data management support to clinical trials and observational studies at Kingston General Hospital in the past. Currently, she is focused on methods to make better use of existing data through synthetic data generation to enable widespread data sharing at the start-up Replica Analytics.</t>
   </si>
   <si>
-    <t>Hanna Frank is an MSc student at the UBC School of Population and Public Health, where she is currently performing research under the supervision of Dr. Ehsan Karim. She gained a background in mathematics, statistics, and computer science through the completion of a BSc in mathematical sciences at the University of British Columbia. She has worked in the industry at the German chemical company BASF to analyze agricultural research data, and at the Vancouver start-up Thrive Health to analyze COVID-19 data for presentation in interactive statistics dashboards. Her research interests focus on the use of data science in health care, and she is currently working on a project looking at the use of machine learning in propensity score methods in epidemiology.</t>
-  </si>
-  <si>
     <t>[Christopher Andrew Basham](https://www.linkedin.com/in/candrewbasham/) ([SPPH](http://www.spph.ubc.ca/), Graduation expected 2021)</t>
   </si>
   <si>
@@ -195,9 +187,6 @@
     <t>![](./images/m.jpg)</t>
   </si>
   <si>
-    <t>![](./images/zc.jpg)</t>
-  </si>
-  <si>
     <t>![](./images/lm.jpg)</t>
   </si>
   <si>
@@ -208,12 +197,15 @@
   </si>
   <si>
     <t>C. Andrew Basham is a tuberculosis (TB) epidemiologist with a background in Environmental and Urban Studies (BA) from the University of Winnipeg. Andrew has worked with First Nations in remote communities as a health policy analyst for Manitoba Keewatinowi Okimakanak. In his MSc thesis in the University of Manitoba, Andrew investigated differences in TB program performance between First Nations (on and off-reserve), immigrants, and Canadian-born non-First Nations, discovering important population and geographic differences in program performance in the first application of quantitative performance measurement to a Canadian TB program. Andrew then worked for the Manitoba Centre for Health Policy, where he developed an interest in health administrative data linkage and analysis. Under the supervision of Drs. Ehsan Karim and James Johnston, Andrew has completed his doctoral research on TB survivor health using causal inference methods with health administrative data. Methods used included high-dimensional propensity scoring, with hybrid machine learning, directed acyclic graphs (DAGs), E-values for unmeasured confounding, and causal mediation analysis. Andrew has published extensively during his Ph.D. and is developing a new research interest in survivorship epidemiology. Andrew plans to develop a Partnership for Post-TB Health as a knowledge exchange and models of care development network.</t>
+  </si>
+  <si>
+    <t>Hanna Frank is an PhD student at the UBC School of Population and Public Health, where she is currently performing research under the supervision of Dr. Ehsan Karim. She gained a background in mathematics, statistics, and computer science through the completion of a BSc in mathematical sciences at the University of British Columbia. She has worked in the industry at the German chemical company BASF to analyze agricultural research data, and at the Vancouver start-up Thrive Health to analyze COVID-19 data for presentation in interactive statistics dashboards. Her research interests focus on the use of data science in health care, and she is currently working on a project looking at the use of machine learning in propensity score methods in epidemiology.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -537,21 +529,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="121.109375" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="121.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -562,29 +554,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -592,18 +584,18 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -613,21 +605,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1"/>
-    <col min="2" max="2" width="112.88671875" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="112.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -638,37 +630,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -677,23 +669,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="66" customWidth="1"/>
-    <col min="3" max="3" width="38.5546875" customWidth="1"/>
-    <col min="4" max="4" width="38.77734375" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -710,7 +702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -727,12 +719,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -744,7 +736,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -761,7 +753,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -778,12 +770,12 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -795,12 +787,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -812,7 +804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -829,12 +821,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -846,7 +838,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -863,7 +855,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -886,21 +878,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="2" width="133.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="133.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -911,7 +903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -919,21 +911,21 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -941,18 +933,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/content/Supervision/students.xlsx
+++ b/content/Supervision/students.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640DB807-C599-4029-98BC-CAC659DF50C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF8A23A-3DFC-40CC-8480-99857745E1CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phd" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Research Interests</t>
   </si>
   <si>
-    <t>Graduated expected 2021</t>
-  </si>
-  <si>
     <t>Name and website link</t>
   </si>
   <si>
@@ -200,6 +197,36 @@
   </si>
   <si>
     <t>Hanna Frank is an PhD student at the UBC School of Population and Public Health, where she is currently performing research under the supervision of Dr. Ehsan Karim. She gained a background in mathematics, statistics, and computer science through the completion of a BSc in mathematical sciences at the University of British Columbia. She has worked in the industry at the German chemical company BASF to analyze agricultural research data, and at the Vancouver start-up Thrive Health to analyze COVID-19 data for presentation in interactive statistics dashboards. Her research interests focus on the use of data science in health care, and she is currently working on a project looking at the use of machine learning in propensity score methods in epidemiology.</t>
+  </si>
+  <si>
+    <t>Mohammad Barrichello Hafiizh Noor</t>
+  </si>
+  <si>
+    <t>Computer Science and Statistics</t>
+  </si>
+  <si>
+    <t>Yuanhong Zhang</t>
+  </si>
+  <si>
+    <t>Data science</t>
+  </si>
+  <si>
+    <t>Chuyi (Astra) Zheng</t>
+  </si>
+  <si>
+    <t>Visual arts and Statistics</t>
+  </si>
+  <si>
+    <t>Jialin Han</t>
+  </si>
+  <si>
+    <t>Sebastian Santana</t>
+  </si>
+  <si>
+    <t>Momenul Haque Mondol</t>
+  </si>
+  <si>
+    <t>Data science in health science</t>
   </si>
 </sst>
 </file>
@@ -532,7 +559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -545,7 +572,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -556,24 +583,24 @@
     </row>
     <row r="2" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -581,21 +608,21 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -606,10 +633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,10 +662,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,10 +673,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -657,23 +684,57 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +785,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -775,7 +836,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -783,8 +844,8 @@
       <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
-        <v>36</v>
+      <c r="E6">
+        <v>2021</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -792,7 +853,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -806,10 +867,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -823,27 +881,27 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -852,24 +910,55 @@
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
-        <v>36</v>
+      <c r="E12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -879,10 +968,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +983,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -908,21 +997,21 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -933,7 +1022,18 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
